--- a/media/fk1.xlsx
+++ b/media/fk1.xlsx
@@ -12278,17 +12278,17 @@
   </sheetPr>
   <dimension ref="A1:E2038"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2018" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I100" activeCellId="0" sqref="I100"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2012" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2057" activeCellId="0" sqref="H2057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.7142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
